--- a/Apendices/Fisica1.xlsx
+++ b/Apendices/Fisica1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>TOTAL</t>
   </si>
@@ -36,14 +36,14 @@
     <t>Ganaron</t>
   </si>
   <si>
-    <t>AÑO</t>
+    <t>Año</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -58,6 +58,22 @@
       <sz val="10"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -77,16 +93,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentual" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -415,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E15" sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -526,24 +565,149 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="13">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>1874</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>556</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>500</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>2930</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="13">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="13">
+      <c r="A10" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="4">
+        <f>B2/$E$2</f>
+        <v>0.66455696202531644</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" ref="C10:D10" si="0">C2/$E$2</f>
+        <v>0.20253164556962025</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13291139240506328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13">
+      <c r="A11" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="4">
+        <f>B3/$E$3</f>
+        <v>0.67169811320754713</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" ref="C11:D11" si="1">C3/$E$3</f>
+        <v>0.13396226415094339</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="1"/>
+        <v>0.19433962264150945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13">
+      <c r="A12" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="4">
+        <f>B4/$E$4</f>
+        <v>0.62006578947368418</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" ref="C12:D12" si="2">C4/$E$4</f>
+        <v>0.19407894736842105</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="2"/>
+        <v>0.18585526315789475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13">
+      <c r="A13" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B5/$E$5</f>
+        <v>0.62968515742128939</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" ref="C13:D13" si="3">C5/$E$5</f>
+        <v>0.20989505247376311</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="3"/>
+        <v>0.16041979010494753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13">
+      <c r="A14" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B14" s="4">
+        <f>B6/$E$6</f>
+        <v>0.62365591397849462</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" ref="C14:D14" si="4">C6/$E$6</f>
+        <v>0.20122887864823349</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="4"/>
+        <v>0.17511520737327188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5">
+        <f>B7/$E7</f>
+        <v>0.63959044368600682</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" ref="C15:D15" si="5">C7/$E7</f>
+        <v>0.18976109215017065</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="5"/>
+        <v>0.17064846416382254</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
